--- a/biology/Virologie/Coronavirus_de_chauve-souris_WIV1_lié_au_SRAS/Coronavirus_de_chauve-souris_WIV1_lié_au_SRAS.xlsx
+++ b/biology/Virologie/Coronavirus_de_chauve-souris_WIV1_lié_au_SRAS/Coronavirus_de_chauve-souris_WIV1_lié_au_SRAS.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coronavirus_de_chauve-souris_WIV1_li%C3%A9_au_SRAS</t>
+          <t>Coronavirus_de_chauve-souris_WIV1_lié_au_SRAS</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Coronavirus de chauve-souris WIV1 lié au SRAS, en anglais Bat SL-CoV-WIV1 ou Bat SARS-like coronavirus WIV1, est une souche de coronavirus lié au syndrome respiratoire aigu sévère — donc de l'espèce SARSr-CoV — isolée en 2013 par l'institut de virologie de Wuhan (WIV) chez des chauves-souris Rhinolophus sinicus[2],[3].
-Comme tous les coronavirus, les virions sont constitués d'un simple brin d'ARN de sens positif enfermé dans une enveloppe[4].
-Ce coronavirus est capable d’utiliser le récepteur ACE2 humain et présente de fait un risque de zoonose, sans qu’une adaptation à l'humain chez un hôte intermédiaire ne soit nécessaire[5],[6].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Coronavirus de chauve-souris WIV1 lié au SRAS, en anglais Bat SL-CoV-WIV1 ou Bat SARS-like coronavirus WIV1, est une souche de coronavirus lié au syndrome respiratoire aigu sévère — donc de l'espèce SARSr-CoV — isolée en 2013 par l'institut de virologie de Wuhan (WIV) chez des chauves-souris Rhinolophus sinicus,.
+Comme tous les coronavirus, les virions sont constitués d'un simple brin d'ARN de sens positif enfermé dans une enveloppe.
+Ce coronavirus est capable d’utiliser le récepteur ACE2 humain et présente de fait un risque de zoonose, sans qu’une adaptation à l'humain chez un hôte intermédiaire ne soit nécessaire,.
 </t>
         </is>
       </c>
